--- a/HT36C/Comp-A4_HT36C_B.xlsx
+++ b/HT36C/Comp-A4_HT36C_B.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="32">
   <si>
     <t>run</t>
   </si>
@@ -132,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -168,11 +168,19 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyBorder="true"/>
@@ -190,6 +198,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,94 +553,94 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="23" t="s">
         <v>29</v>
       </c>
     </row>
@@ -716,7 +732,7 @@
       <c r="AC2">
         <v>35.5229</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AD2" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -808,7 +824,7 @@
       <c r="AC3">
         <v>38.770000000000003</v>
       </c>
-      <c r="AD3" s="15" t="s">
+      <c r="AD3" s="23" t="s">
         <v>31</v>
       </c>
     </row>
